--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H2">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I2">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J2">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N2">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O2">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P2">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q2">
-        <v>303.0071670356622</v>
+        <v>231.512849583815</v>
       </c>
       <c r="R2">
-        <v>2727.06450332096</v>
+        <v>2083.615646254335</v>
       </c>
       <c r="S2">
-        <v>0.03577543247386752</v>
+        <v>0.05078865268598403</v>
       </c>
       <c r="T2">
-        <v>0.0471677316673</v>
+        <v>0.05798059425567757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H3">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I3">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J3">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>56.858436</v>
       </c>
       <c r="O3">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P3">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q3">
-        <v>765.477650142468</v>
+        <v>684.842936758884</v>
       </c>
       <c r="R3">
-        <v>6889.298851282212</v>
+        <v>6163.586430829956</v>
       </c>
       <c r="S3">
-        <v>0.09037837042218724</v>
+        <v>0.1502389613450116</v>
       </c>
       <c r="T3">
-        <v>0.1191583841150062</v>
+        <v>0.1715135920812382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H4">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I4">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J4">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N4">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O4">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P4">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q4">
-        <v>641.650277880509</v>
+        <v>557.1482546905139</v>
       </c>
       <c r="R4">
-        <v>5774.85250092458</v>
+        <v>5014.334292214626</v>
       </c>
       <c r="S4">
-        <v>0.07575832747695622</v>
+        <v>0.1222256529300519</v>
       </c>
       <c r="T4">
-        <v>0.09988274675943321</v>
+        <v>0.1395334511822619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H5">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I5">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J5">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N5">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O5">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P5">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q5">
-        <v>912.5014237598324</v>
+        <v>760.49865102192</v>
       </c>
       <c r="R5">
-        <v>5475.008542558994</v>
+        <v>4562.991906131519</v>
       </c>
       <c r="S5">
-        <v>0.1077371647258288</v>
+        <v>0.1668361040190484</v>
       </c>
       <c r="T5">
-        <v>0.09469659903427817</v>
+        <v>0.1269739852342511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.38860566666667</v>
+        <v>36.134107</v>
       </c>
       <c r="H6">
-        <v>121.165817</v>
+        <v>108.402321</v>
       </c>
       <c r="I6">
-        <v>0.3922794987653324</v>
+        <v>0.6652922211878534</v>
       </c>
       <c r="J6">
-        <v>0.4698483591077923</v>
+        <v>0.6960141222607766</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N6">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O6">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P6">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q6">
-        <v>699.8530050713609</v>
+        <v>798.6372735183404</v>
       </c>
       <c r="R6">
-        <v>6298.677045642248</v>
+        <v>7187.735461665064</v>
       </c>
       <c r="S6">
-        <v>0.08263020366649267</v>
+        <v>0.1752028502077574</v>
       </c>
       <c r="T6">
-        <v>0.1089428975317747</v>
+        <v>0.2000124995073478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J7">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N7">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O7">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P7">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q7">
-        <v>71.4481405752889</v>
+        <v>61.01753577113334</v>
       </c>
       <c r="R7">
-        <v>643.0332651776</v>
+        <v>549.1578219402001</v>
       </c>
       <c r="S7">
-        <v>0.008435734882250506</v>
+        <v>0.01338585930589033</v>
       </c>
       <c r="T7">
-        <v>0.01112200333659474</v>
+        <v>0.01528136770977184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J8">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>56.858436</v>
       </c>
       <c r="O8">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P8">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q8">
         <v>180.49723143408</v>
@@ -948,10 +948,10 @@
         <v>1624.47508290672</v>
       </c>
       <c r="S8">
-        <v>0.02131093656319347</v>
+        <v>0.0395969865800833</v>
       </c>
       <c r="T8">
-        <v>0.0280971736156037</v>
+        <v>0.04520412909635817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>28.57052</v>
       </c>
       <c r="I9">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J9">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N9">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O9">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P9">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q9">
-        <v>151.2991250427556</v>
+        <v>146.84201598968</v>
       </c>
       <c r="R9">
-        <v>1361.6921253848</v>
+        <v>1321.57814390712</v>
       </c>
       <c r="S9">
-        <v>0.01786357624565786</v>
+        <v>0.03221379790891291</v>
       </c>
       <c r="T9">
-        <v>0.02355203872347365</v>
+        <v>0.03677544189918072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>28.57052</v>
       </c>
       <c r="I10">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J10">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N10">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O10">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P10">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q10">
-        <v>215.1649765837734</v>
+        <v>200.4370544704</v>
       </c>
       <c r="R10">
-        <v>1290.98985950264</v>
+        <v>1202.6223268224</v>
       </c>
       <c r="S10">
-        <v>0.0254040858697184</v>
+        <v>0.04397133015812736</v>
       </c>
       <c r="T10">
-        <v>0.02232916133962787</v>
+        <v>0.03346526855836303</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>28.57052</v>
       </c>
       <c r="I11">
-        <v>0.09249827668033554</v>
+        <v>0.1753444440667649</v>
       </c>
       <c r="J11">
-        <v>0.1107887709027403</v>
+        <v>0.1834415095257413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N11">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O11">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P11">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q11">
-        <v>165.0231457478756</v>
+        <v>210.4888713203956</v>
       </c>
       <c r="R11">
-        <v>1485.20831173088</v>
+        <v>1894.39984188356</v>
       </c>
       <c r="S11">
-        <v>0.01948394311951532</v>
+        <v>0.04617647011375096</v>
       </c>
       <c r="T11">
-        <v>0.02568839388744039</v>
+        <v>0.05271530226206754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H12">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I12">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J12">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N12">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O12">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P12">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q12">
-        <v>6.44429992135111</v>
+        <v>3.270523105246667</v>
       </c>
       <c r="R12">
-        <v>57.99869929215999</v>
+        <v>29.43470794722</v>
       </c>
       <c r="S12">
-        <v>0.0007608652261697566</v>
+        <v>0.0007174783706064811</v>
       </c>
       <c r="T12">
-        <v>0.001003154520889986</v>
+        <v>0.0008190770987874465</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H13">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I13">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J13">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>56.858436</v>
       </c>
       <c r="O13">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P13">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q13">
-        <v>16.280035910928</v>
+        <v>9.674601872687999</v>
       </c>
       <c r="R13">
-        <v>146.520323198352</v>
+        <v>87.07141685419199</v>
       </c>
       <c r="S13">
-        <v>0.001922150327668634</v>
+        <v>0.002122387570583781</v>
       </c>
       <c r="T13">
-        <v>0.002534238291763849</v>
+        <v>0.002422928864527079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H14">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I14">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J14">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N14">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O14">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P14">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q14">
-        <v>13.64649844996444</v>
+        <v>7.870691597847999</v>
       </c>
       <c r="R14">
-        <v>122.81848604968</v>
+        <v>70.83622438063199</v>
       </c>
       <c r="S14">
-        <v>0.001611213980770234</v>
+        <v>0.001726650692089881</v>
       </c>
       <c r="T14">
-        <v>0.002124287631158215</v>
+        <v>0.001971153553104115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H15">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I15">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J15">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N15">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O15">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P15">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q15">
-        <v>19.40691011007067</v>
+        <v>10.74337089344</v>
       </c>
       <c r="R15">
-        <v>116.441460660424</v>
+        <v>64.46022536064</v>
       </c>
       <c r="S15">
-        <v>0.002291333927713782</v>
+        <v>0.002356851181109473</v>
       </c>
       <c r="T15">
-        <v>0.002013989608493297</v>
+        <v>0.001793729174084248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8589773333333333</v>
+        <v>0.5104573333333333</v>
       </c>
       <c r="H16">
-        <v>2.576932</v>
+        <v>1.531372</v>
       </c>
       <c r="I16">
-        <v>0.008342927224370097</v>
+        <v>0.009398413889541031</v>
       </c>
       <c r="J16">
-        <v>0.009992647280481435</v>
+        <v>0.009832414367167749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N16">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O16">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P16">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q16">
-        <v>14.88434319775644</v>
+        <v>11.28214550703511</v>
       </c>
       <c r="R16">
-        <v>133.959088779808</v>
+        <v>101.539309563316</v>
       </c>
       <c r="S16">
-        <v>0.001757363762047692</v>
+        <v>0.002475046075151416</v>
       </c>
       <c r="T16">
-        <v>0.00231697722817609</v>
+        <v>0.002825525676664859</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H17">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I17">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J17">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N17">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O17">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P17">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q17">
-        <v>382.56764742592</v>
+        <v>46.0801563973375</v>
       </c>
       <c r="R17">
-        <v>2295.40588455552</v>
+        <v>276.480938384025</v>
       </c>
       <c r="S17">
-        <v>0.04516897461887932</v>
+        <v>0.0101089380705537</v>
       </c>
       <c r="T17">
-        <v>0.03970169708065519</v>
+        <v>0.007693611408942354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H18">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I18">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J18">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>56.858436</v>
       </c>
       <c r="O18">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P18">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q18">
-        <v>966.4688351667238</v>
+        <v>136.31066133129</v>
       </c>
       <c r="R18">
-        <v>5798.813011000343</v>
+        <v>817.86396798774</v>
       </c>
       <c r="S18">
-        <v>0.1141089858991195</v>
+        <v>0.02990345826677461</v>
       </c>
       <c r="T18">
-        <v>0.1002971714672056</v>
+        <v>0.02275863063779629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H19">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I19">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J19">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N19">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O19">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P19">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q19">
-        <v>810.12815531866</v>
+        <v>110.894400715965</v>
       </c>
       <c r="R19">
-        <v>4860.76893191196</v>
+        <v>665.3664042957899</v>
       </c>
       <c r="S19">
-        <v>0.09565016365560249</v>
+        <v>0.02432770886328043</v>
       </c>
       <c r="T19">
-        <v>0.08407261522342797</v>
+        <v>0.01851509398491255</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H20">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I20">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J20">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N20">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O20">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P20">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q20">
-        <v>1152.096586941507</v>
+        <v>151.3691220252</v>
       </c>
       <c r="R20">
-        <v>4608.386347766028</v>
+        <v>605.4764881008</v>
       </c>
       <c r="S20">
-        <v>0.1360256724378012</v>
+        <v>0.03320694198935588</v>
       </c>
       <c r="T20">
-        <v>0.07970736680631195</v>
+        <v>0.01684854241281691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.993427</v>
+        <v>7.192107500000001</v>
       </c>
       <c r="H21">
-        <v>101.986854</v>
+        <v>14.384215</v>
       </c>
       <c r="I21">
-        <v>0.4952801824598738</v>
+        <v>0.1324193005156269</v>
       </c>
       <c r="J21">
-        <v>0.3954775132863255</v>
+        <v>0.09235611087732429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N21">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O21">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P21">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q21">
-        <v>883.6131511786959</v>
+        <v>158.9602068940242</v>
       </c>
       <c r="R21">
-        <v>5301.678907072176</v>
+        <v>953.7612413641451</v>
       </c>
       <c r="S21">
-        <v>0.1043263858484714</v>
+        <v>0.03487225332566234</v>
       </c>
       <c r="T21">
-        <v>0.09169866270872477</v>
+        <v>0.02654023243285617</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H22">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I22">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J22">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N22">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O22">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P22">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q22">
-        <v>8.959466268231111</v>
+        <v>6.105642653428333</v>
       </c>
       <c r="R22">
-        <v>80.63519641407999</v>
+        <v>54.950783880855</v>
       </c>
       <c r="S22">
-        <v>0.001057825739294383</v>
+        <v>0.001339439105462854</v>
       </c>
       <c r="T22">
-        <v>0.001394678894748431</v>
+        <v>0.001529110759921014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H23">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I23">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J23">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>56.858436</v>
       </c>
       <c r="O23">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P23">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q23">
-        <v>22.634022992364</v>
+        <v>18.061227500292</v>
       </c>
       <c r="R23">
-        <v>203.706206931276</v>
+        <v>162.551047502628</v>
       </c>
       <c r="S23">
-        <v>0.002672352502737933</v>
+        <v>0.003962222452204667</v>
       </c>
       <c r="T23">
-        <v>0.003523334228360591</v>
+        <v>0.004523294086425196</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H24">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I24">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J24">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N24">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O24">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P24">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q24">
-        <v>18.97263380570444</v>
+        <v>14.693560872482</v>
       </c>
       <c r="R24">
-        <v>170.75370425134</v>
+        <v>132.242047852338</v>
       </c>
       <c r="S24">
-        <v>0.002240059818411853</v>
+        <v>0.003223433002593147</v>
       </c>
       <c r="T24">
-        <v>0.002953382618385683</v>
+        <v>0.003679888147245359</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H25">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I25">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J25">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N25">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O25">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P25">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q25">
-        <v>26.98129488444366</v>
+        <v>20.05648070896</v>
       </c>
       <c r="R25">
-        <v>161.887769306662</v>
+        <v>120.33888425376</v>
       </c>
       <c r="S25">
-        <v>0.003185625946208444</v>
+        <v>0.004399935617663103</v>
       </c>
       <c r="T25">
-        <v>0.002800036029061869</v>
+        <v>0.003348659832556529</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.194230333333333</v>
+        <v>0.9529576666666667</v>
       </c>
       <c r="H26">
-        <v>3.582691</v>
+        <v>2.858873</v>
       </c>
       <c r="I26">
-        <v>0.01159911487008805</v>
+        <v>0.01754562034021376</v>
       </c>
       <c r="J26">
-        <v>0.01389270942266048</v>
+        <v>0.01835584296898988</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N26">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O26">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P26">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q26">
-        <v>20.69360092370044</v>
+        <v>21.06230306687989</v>
       </c>
       <c r="R26">
-        <v>186.242408313304</v>
+        <v>189.560727601919</v>
       </c>
       <c r="S26">
-        <v>0.002443250863435438</v>
+        <v>0.004620590162289994</v>
       </c>
       <c r="T26">
-        <v>0.003221277652103906</v>
+        <v>0.005274890142841776</v>
       </c>
     </row>
   </sheetData>
